--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0302 - Sales,Penyelia,Penyelia SRM,Pemimpin Cabang,Pemimpin Wilayah,Admin SLN,Admin WEM mengakses report status Non Sales.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0302 - Sales,Penyelia,Penyelia SRM,Pemimpin Cabang,Pemimpin Wilayah,Admin SLN,Admin WEM mengakses report status Non Sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F797B4-7AC3-43E1-9AD2-433729CFB20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC0084F-76CB-488E-BADE-4D0DF3E88555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
   <si>
     <t>RUN</t>
   </si>
@@ -187,99 +187,6 @@
     <t>QUERY3</t>
   </si>
   <si>
-    <t>SELECT *
-FROM
-+(9)
-SELECT p.[Id],
-p.Nama AS PegawaiName,
-rp.[Role_Id],
-mr.Nama AS RoleName,
-rp.[Unit_Id],
-u.Name AS UnitName,
-st.Nama AS SalesTypeName,
-p.SalesTypeId,
-p.Npp,
-+(9)p.Npp + ' - ' + p.Nama + ' +(9)' + mr.Nama + '+(0)'+(0) AS [Text],
-wil.Code WilayahCode,
-wil.NamaWilayah WilayahName
-FROM [dbo].[Tbl_Role_Pegawai] rp
-LEFT JOIN [dbo].[Tbl_Pegawai] p
-ON p.Id = rp.Pegawai_Id
-LEFT JOIN [dbo].[Tbl_Master_Role] mr
-ON mr.Id = rp.Role_Id
-LEFT JOIN [dbo].[Tbl_Unit] u
-ON u.Id = rp.Unit_Id
-LEFT JOIN [DigisalesNew].[dbo].[Tbl_SalesType] st
-ON st.Id = p.SalesTypeId
-LEFT JOIN dbo.Tbl_Unit_Wilayah wil
-ON u.Wilayah_Id = wil.Id
-WHERE rp.Role_Id = 4
-AND
-+(9)
-rp.StatusRole = 1
-OR
-+(9)
-rp.StatusRole = 2
-AND rp.DateStart &lt;= GETDATE+(9)+(0)
-AND rp.DateEnd &gt;= GETDATE+(9)+(0)
-+(0)
-+(0)
-UNION
-SELECT p.[Id],
-p.[Nama] AS PegawaiName,
-[Role_Id],
-mr.Nama AS RoleName,
-[Unit_Id],
-u.Name AS UnitName,
-st.Nama AS SalesTypeName,
-p.SalesTypeId,
-[Npp],
-+(9)p.Npp + ' - ' + p.Nama + ' +(9)' + mr.Nama + '+(0)'+(0) AS [Text],
-wil.Code WilayahCode,
-wil.NamaWilayah WilayahName
-FROM [dbo].[Tbl_Pegawai] p
-LEFT JOIN [dbo].[Tbl_Master_Role] mr
-ON mr.Id = p.Role_Id
-LEFT JOIN [dbo].[Tbl_Unit] u
-ON u.Id = p.Unit_Id
-LEFT JOIN [DigisalesNew].[dbo].[Tbl_SalesType] st
-ON st.Id = p.SalesTypeId
-LEFT JOIN dbo.Tbl_Unit_Wilayah wil
-ON u.Wilayah_Id = wil.Id
-WHERE Role_Id = 4
-+(0) tbl
-WHERE Id IS NOT NULL
-ORDER BY tbl.PegawaiName;</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT
-p.[Id],
-p.[Nama] AS PegawaiName,
-p.[Role_Id],
-mr.Nama AS RoleName,
-p.[Unit_Id],
-u.Name AS UnitName,
-st.Nama AS SalesTypeName,
-p.SalesTypeId,
-p.[Npp],
-+(9)p.Npp + ' - ' + p.Nama + ' +(9)' + mr.Nama + '+(0)'+(0) AS [Text],
-wil.Code WilayahCode,
-wil.NamaWilayah WilayahName
-FROM [dbo].[Tbl_Pegawai] p
-LEFT JOIN [dbo].[Tbl_Master_Role] mr
-ON mr.Id = p.Role_Id
-LEFT JOIN [dbo].[Tbl_Unit] u
-ON u.Id = p.Unit_Id
-LEFT JOIN [DigisalesNew].[dbo].[Tbl_SalesType] st
-ON st.Id = p.SalesTypeId
-JOIN dbo.Tbl_Wilayah_Pegawai wp
-ON wp.npp = p.Npp
-AND wp.isdeleted = 0
-LEFT JOIN dbo.Tbl_Unit_Wilayah wil
-ON wil.Code = wp.Wilayah_code
-        WHERE p.Role_Id = 4</t>
-  </si>
-  <si>
     <t>sa</t>
   </si>
   <si>
@@ -299,6 +206,12 @@
   </si>
   <si>
     <t>SELECT * from DigisalesNew..Tbl_Pegawai where NPP='37400' SELECT * from DigisalesNew..Tbl_Pegawai where Unit_Id='2236' and Role_Id ='4'</t>
+  </si>
+  <si>
+    <t>USE DigisalesNew; SELECT * FROM +(9) SELECT p.[Id], p.Nama AS PegawaiName, rp.[Role_Id], mr.Nama AS RoleName, rp.[Unit_Id], u.Name AS UnitName, st.Nama AS SalesTypeName, p.SalesTypeId, p.Npp, +(9)p.Npp +(=) ' - ' +(=) p.Nama +(=) ' +(9)' +(=) mr.Nama +(=) '+(0)'+(0) AS [Text], wil.Code WilayahCode, wil.NamaWilayah WilayahName FROM [dbo].[Tbl_Role_Pegawai] rp LEFT JOIN [dbo].[Tbl_Pegawai] p ON p.Id = rp.Pegawai_Id LEFT JOIN [dbo].[Tbl_Master_Role] mr ON mr.Id = rp.Role_Id LEFT JOIN [dbo].[Tbl_Unit] u ON u.Id = rp.Unit_Id LEFT JOIN [DigisalesNew].[dbo].[Tbl_SalesType] st ON st.Id = p.SalesTypeId LEFT JOIN dbo.Tbl_Unit_Wilayah wil ON u.Wilayah_Id = wil.Id WHERE rp.Role_Id = 4 AND +(9) rp.StatusRole = 1 OR +(9) rp.StatusRole = 2 AND rp.DateStart &lt;= GETDATE+(9)+(0) AND rp.DateEnd &gt;= GETDATE+(9)+(0) +(0) +(0) UNION SELECT p.[Id], p.[Nama] AS PegawaiName, [Role_Id], mr.Nama AS RoleName, [Unit_Id], u.Name AS UnitName, st.Nama AS SalesTypeName, p.SalesTypeId, [Npp], +(9)p.Npp +(=) ' - ' +(=) p.Nama +(=) ' +(9)' +(=) mr.Nama +(=) '+(0)'+(0) AS [Text], wil.Code WilayahCode, wil.NamaWilayah WilayahName FROM [dbo].[Tbl_Pegawai] p LEFT JOIN [dbo].[Tbl_Master_Role] mr ON mr.Id = p.Role_Id LEFT JOIN [dbo].[Tbl_Unit] u ON u.Id = p.Unit_Id LEFT JOIN [DigisalesNew].[dbo].[Tbl_SalesType] st ON st.Id = p.SalesTypeId LEFT JOIN dbo.Tbl_Unit_Wilayah wil ON u.Wilayah_Id = wil.Id WHERE Role_Id = 4 +(0) tbl WHERE Id IS NOT NULL ORDER BY tbl.PegawaiName;</t>
+  </si>
+  <si>
+    <t>USE DigisalesNew; SELECT DISTINCT p.[Id], p.[Nama] AS PegawaiName, p.[Role_Id], mr.Nama AS RoleName, p.[Unit_Id], u.Name AS UnitName,st.Nama AS SalesTypeName, p.SalesTypeId, p.[Npp], +(9)p.Npp +(=) ' - ' +(=) p.Nama +(=) ' +(9)' +(=) mr.Nama +(=) '+(0)'+(0) AS [Text], wil.Code WilayahCode, wil.NamaWilayah WilayahName FROM [dbo].[Tbl_Pegawai] p LEFT JOIN [dbo].[Tbl_Master_Role] mr ON mr.Id = p.Role_Id LEFT JOIN [dbo].[Tbl_Unit] u ON u.Id = p.Unit_Id LEFT JOIN [DigisalesNew].[dbo].[Tbl_SalesType] st ON st.Id = p.SalesTypeId JOIN dbo.Tbl_Wilayah_Pegawai wp ON wp.npp = p.Npp AND wp.isdeleted = 0 LEFT JOIN dbo.Tbl_Unit_Wilayah wil ON wil.Code = wp.Wilayah_code WHERE p.Role_Id = 4</t>
   </si>
 </sst>
 </file>
@@ -716,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,7 +726,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="102" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -849,7 +762,7 @@
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:22" ht="102" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -879,24 +792,24 @@
       <c r="L3" s="9"/>
       <c r="M3" s="7"/>
       <c r="N3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="Q3" s="14" t="str">
         <f>"Berikut NPP yang Ada dalam User " &amp; H3</f>
         <v>Berikut NPP yang Ada dalam User Penyelia</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="102" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -926,24 +839,24 @@
       <c r="L4" s="9"/>
       <c r="M4" s="7"/>
       <c r="N4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="Q4" s="14" t="str">
         <f t="shared" ref="Q4:Q8" si="0">"Berikut NPP yang Ada dalam User " &amp; H4</f>
         <v>Berikut NPP yang Ada dalam User Pimpinan Cabang</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -971,24 +884,24 @@
         <v>37</v>
       </c>
       <c r="N5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="Q5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Berikut NPP yang Ada dalam User Pemimpin Wilayah</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1016,23 +929,32 @@
         <v>37</v>
       </c>
       <c r="N6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="Q6" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Berikut NPP yang Ada dalam User Penyelia SRM</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D7" t="s">
         <v>28</v>
       </c>
@@ -1052,23 +974,32 @@
         <v>37</v>
       </c>
       <c r="N7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="Q7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Berikut NPP yang Ada dalam User Admin SLN</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="405" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="225" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D8" t="s">
         <v>29</v>
       </c>
@@ -1088,20 +1019,20 @@
         <v>37</v>
       </c>
       <c r="N8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="Q8" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Berikut NPP yang Ada dalam User Admin WEM</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0302 - Sales,Penyelia,Penyelia SRM,Pemimpin Cabang,Pemimpin Wilayah,Admin SLN,Admin WEM mengakses report status Non Sales.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0302 - Sales,Penyelia,Penyelia SRM,Pemimpin Cabang,Pemimpin Wilayah,Admin SLN,Admin WEM mengakses report status Non Sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC0084F-76CB-488E-BADE-4D0DF3E88555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2966A4FC-CDC4-4E88-BBD6-E09F70CAFC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>TEXT2</t>
   </si>
   <si>
-    <t>Penyelia</t>
-  </si>
-  <si>
     <t>SIDEBAR_MENU</t>
   </si>
   <si>
@@ -77,13 +74,43 @@
     <t>SIDEBAR_SUBMENU_SUBMENU</t>
   </si>
   <si>
-    <t>Sales</t>
+    <t>Admin SLN</t>
+  </si>
+  <si>
+    <t>USER_DB</t>
+  </si>
+  <si>
+    <t>PASSWORD_DB</t>
+  </si>
+  <si>
+    <t>HOSTNAME</t>
+  </si>
+  <si>
+    <t>EXPL_QUERY1</t>
+  </si>
+  <si>
+    <t>EXPL_QUERY2</t>
+  </si>
+  <si>
+    <t>EXPL_QUERY3</t>
+  </si>
+  <si>
+    <t>QUERY1</t>
+  </si>
+  <si>
+    <t>QUERY2</t>
+  </si>
+  <si>
+    <t>QUERY3</t>
   </si>
   <si>
     <t>DGS-317</t>
   </si>
   <si>
     <t>Sales/Penyelia/Penyelia SRM/Pemimpin Cabang/ Pemimpin Wilayah/Admin SLN/Admin WEM mengakses report status Non Sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Login sebagai Sales</t>
   </si>
   <si>
     <t>• Sales : NPP akan muncul secara otomatis oleh system berdasarkan user login sales tersebut	
@@ -91,62 +118,89 @@
 • Jika sales melakukan pengajuan non sales lebih dari 1 kali, maka akumulasi Report Status Non Sales akan menyesuaikan dengan data yang sudah ada (contoh ada pada BSDD 3.6.1)</t>
   </si>
   <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Login sebagai Penyelia</t>
+  </si>
+  <si>
     <t>• Penyelia : Hanya dapat memilih Sales yang berada dalam kewenangan Penyelia tersebut
 • Berhasil menampilkan data Sales yang mengajukan Non Sales
 • Jika sales melakukan pengajuan non sales lebih dari 1 kali, maka akumulasi Report Status Non Sales akan menyesuaikan dengan data yang sudah ada (contoh ada pada BSDD 3.6.1)</t>
   </si>
   <si>
+    <t>Penyelia</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>4eFfEJAA!</t>
+  </si>
+  <si>
+    <t>192.168.232.6</t>
+  </si>
+  <si>
+    <t>SELECT * FROM DigisalesNew.dbo.Tbl_Pegawai a JOIN DigisalesNew..Tbl_Pegawai b ON a.Supervisor_Id=b.Id WHERE b.Npp='32362'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Login sebagai Pemimpin Cabang</t>
+  </si>
+  <si>
     <t>• Pimpinan Cabang : Hanya dapat memilih Sales yang berada dalam Cabang tersebut
 • Berhasil menampilkan data Sales yang mengajukan Non Sales
 • Jika sales melakukan pengajuan non sales lebih dari 1 kali, maka akumulasi Report Status Non Sales akan menyesuaikan dengan data yang sudah ada (contoh ada pada BSDD 3.6.1)</t>
   </si>
   <si>
+    <t>Pimpinan Cabang</t>
+  </si>
+  <si>
+    <t>Select * from DigisalesNew..Tbl_Pegawai AS p JOIN DigisalesNew..Tbl_Unit as u on p.Unit_Id = u.Id WHERE (Unit_Id ='262' or Parent_Id = '262') and Role_Id =  '4' order by Nama</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Login sebagai Pemimpin Wilayah</t>
+  </si>
+  <si>
     <t>• Pimpinan Wilayah : Hanya dapat memilih Sales yang berada dalam Cabang- Cabang di Wilayah tersebut
 • Berhasil menampilkan data Sales yang mengajukan Non Sales
 • Jika sales melakukan pengajuan non sales lebih dari 1 kali, maka akumulasi Report Status Non Sales akan menyesuaikan dengan data yang sudah ada (contoh ada pada BSDD 3.6.1)</t>
   </si>
   <si>
+    <t>Pemimpin Wilayah</t>
+  </si>
+  <si>
+    <t>Select * from DigisalesNew..Tbl_Pegawai AS p JOIN DigisalesNew..Tbl_Unit as u on p.Unit_Id = u.Id where Wilayah_Id ='6' and Role_Id =  '4' order by Nama</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Login sebagai Penyelia SRM</t>
+  </si>
+  <si>
     <t>• Peyelia SRM : Hanya dapat memilih Sales tipe SRM
 • Berhasil menampilkan data Sales yang mengajukan Non Sales
 • Jika sales melakukan pengajuan non sales lebih dari 1 kali, maka akumulasi Report Status Non Sales akan menyesuaikan dengan data yang sudah ada (contoh ada pada BSDD 3.6.1)</t>
   </si>
   <si>
+    <t>Penyelia SRM</t>
+  </si>
+  <si>
+    <t>SELECT * from DigisalesNew..Tbl_Pegawai where NPP='37400' SELECT * from DigisalesNew..Tbl_Pegawai where Unit_Id='2236' and Role_Id ='4'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Login sebagai Admin SLN</t>
+  </si>
+  <si>
     <t>• Admin SLN: Hanya dapat memilih Semua Sales
 • Berhasil menampilkan data Sales yang mengajukan Non Sales
 • Jika sales melakukan pengajuan non sales lebih dari 1 kali, maka akumulasi Report Status Non Sales akan menyesuaikan dengan data yang sudah ada (contoh ada pada BSDD 3.6.1)</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Login sebagai Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Login sebagai Penyelia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Login sebagai Penyelia SRM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Login sebagai Pemimpin Wilayah</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Login sebagai Admin SLN</t>
+    <t>USE DigisalesNew; SELECT * FROM +(9) SELECT p.[Id], p.Nama AS PegawaiName, rp.[Role_Id], mr.Nama AS RoleName, rp.[Unit_Id], u.Name AS UnitName, st.Nama AS SalesTypeName, p.SalesTypeId, p.Npp, +(9)p.Npp +(=) ' - ' +(=) p.Nama +(=) ' +(9)' +(=) mr.Nama +(=) '+(0)'+(0) AS [Text], wil.Code WilayahCode, wil.NamaWilayah WilayahName FROM [dbo].[Tbl_Role_Pegawai] rp LEFT JOIN [dbo].[Tbl_Pegawai] p ON p.Id = rp.Pegawai_Id LEFT JOIN [dbo].[Tbl_Master_Role] mr ON mr.Id = rp.Role_Id LEFT JOIN [dbo].[Tbl_Unit] u ON u.Id = rp.Unit_Id LEFT JOIN [DigisalesNew].[dbo].[Tbl_SalesType] st ON st.Id = p.SalesTypeId LEFT JOIN dbo.Tbl_Unit_Wilayah wil ON u.Wilayah_Id = wil.Id WHERE rp.Role_Id = 4 AND +(9) rp.StatusRole = 1 OR +(9) rp.StatusRole = 2 AND rp.DateStart &lt;= GETDATE+(9)+(0) AND rp.DateEnd &gt;= GETDATE+(9)+(0) +(0) +(0) UNION SELECT p.[Id], p.[Nama] AS PegawaiName, [Role_Id], mr.Nama AS RoleName, [Unit_Id], u.Name AS UnitName, st.Nama AS SalesTypeName, p.SalesTypeId, [Npp], +(9)p.Npp +(=) ' - ' +(=) p.Nama +(=) ' +(9)' +(=) mr.Nama +(=) '+(0)'+(0) AS [Text], wil.Code WilayahCode, wil.NamaWilayah WilayahName FROM [dbo].[Tbl_Pegawai] p LEFT JOIN [dbo].[Tbl_Master_Role] mr ON mr.Id = p.Role_Id LEFT JOIN [dbo].[Tbl_Unit] u ON u.Id = p.Unit_Id LEFT JOIN [DigisalesNew].[dbo].[Tbl_SalesType] st ON st.Id = p.SalesTypeId LEFT JOIN dbo.Tbl_Unit_Wilayah wil ON u.Wilayah_Id = wil.Id WHERE Role_Id = 4 +(0) tbl WHERE Id IS NOT NULL ORDER BY tbl.PegawaiName;</t>
   </si>
   <si>
     <t xml:space="preserve"> - Login sebagai Admin WEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Login sebagai Pemimpin Cabang</t>
-  </si>
-  <si>
-    <t>Pimpinan Cabang</t>
-  </si>
-  <si>
-    <t>Pemimpin Wilayah</t>
-  </si>
-  <si>
-    <t>Penyelia SRM</t>
-  </si>
-  <si>
-    <t>Admin SLN</t>
   </si>
   <si>
     <t>• Admin WEM: Hanya dapat memilih Semua Sales
@@ -155,60 +209,6 @@
   </si>
   <si>
     <t>Admin WEM</t>
-  </si>
-  <si>
-    <t>Report</t>
-  </si>
-  <si>
-    <t>USER_DB</t>
-  </si>
-  <si>
-    <t>PASSWORD_DB</t>
-  </si>
-  <si>
-    <t>HOSTNAME</t>
-  </si>
-  <si>
-    <t>EXPL_QUERY1</t>
-  </si>
-  <si>
-    <t>EXPL_QUERY2</t>
-  </si>
-  <si>
-    <t>EXPL_QUERY3</t>
-  </si>
-  <si>
-    <t>QUERY1</t>
-  </si>
-  <si>
-    <t>QUERY2</t>
-  </si>
-  <si>
-    <t>QUERY3</t>
-  </si>
-  <si>
-    <t>sa</t>
-  </si>
-  <si>
-    <t>4eFfEJAA!</t>
-  </si>
-  <si>
-    <t>192.168.232.6</t>
-  </si>
-  <si>
-    <t>SELECT * FROM DigisalesNew.dbo.Tbl_Pegawai a JOIN DigisalesNew..Tbl_Pegawai b ON a.Supervisor_Id=b.Id WHERE b.Npp='32362'</t>
-  </si>
-  <si>
-    <t>Select * from DigisalesNew..Tbl_Pegawai AS p JOIN DigisalesNew..Tbl_Unit as u on p.Unit_Id = u.Id WHERE (Unit_Id ='262' or Parent_Id = '262') and Role_Id =  '4' order by Nama</t>
-  </si>
-  <si>
-    <t>Select * from DigisalesNew..Tbl_Pegawai AS p JOIN DigisalesNew..Tbl_Unit as u on p.Unit_Id = u.Id where Wilayah_Id ='6' and Role_Id =  '4' order by Nama</t>
-  </si>
-  <si>
-    <t>SELECT * from DigisalesNew..Tbl_Pegawai where NPP='37400' SELECT * from DigisalesNew..Tbl_Pegawai where Unit_Id='2236' and Role_Id ='4'</t>
-  </si>
-  <si>
-    <t>USE DigisalesNew; SELECT * FROM +(9) SELECT p.[Id], p.Nama AS PegawaiName, rp.[Role_Id], mr.Nama AS RoleName, rp.[Unit_Id], u.Name AS UnitName, st.Nama AS SalesTypeName, p.SalesTypeId, p.Npp, +(9)p.Npp +(=) ' - ' +(=) p.Nama +(=) ' +(9)' +(=) mr.Nama +(=) '+(0)'+(0) AS [Text], wil.Code WilayahCode, wil.NamaWilayah WilayahName FROM [dbo].[Tbl_Role_Pegawai] rp LEFT JOIN [dbo].[Tbl_Pegawai] p ON p.Id = rp.Pegawai_Id LEFT JOIN [dbo].[Tbl_Master_Role] mr ON mr.Id = rp.Role_Id LEFT JOIN [dbo].[Tbl_Unit] u ON u.Id = rp.Unit_Id LEFT JOIN [DigisalesNew].[dbo].[Tbl_SalesType] st ON st.Id = p.SalesTypeId LEFT JOIN dbo.Tbl_Unit_Wilayah wil ON u.Wilayah_Id = wil.Id WHERE rp.Role_Id = 4 AND +(9) rp.StatusRole = 1 OR +(9) rp.StatusRole = 2 AND rp.DateStart &lt;= GETDATE+(9)+(0) AND rp.DateEnd &gt;= GETDATE+(9)+(0) +(0) +(0) UNION SELECT p.[Id], p.[Nama] AS PegawaiName, [Role_Id], mr.Nama AS RoleName, [Unit_Id], u.Name AS UnitName, st.Nama AS SalesTypeName, p.SalesTypeId, [Npp], +(9)p.Npp +(=) ' - ' +(=) p.Nama +(=) ' +(9)' +(=) mr.Nama +(=) '+(0)'+(0) AS [Text], wil.Code WilayahCode, wil.NamaWilayah WilayahName FROM [dbo].[Tbl_Pegawai] p LEFT JOIN [dbo].[Tbl_Master_Role] mr ON mr.Id = p.Role_Id LEFT JOIN [dbo].[Tbl_Unit] u ON u.Id = p.Unit_Id LEFT JOIN [DigisalesNew].[dbo].[Tbl_SalesType] st ON st.Id = p.SalesTypeId LEFT JOIN dbo.Tbl_Unit_Wilayah wil ON u.Wilayah_Id = wil.Id WHERE Role_Id = 4 +(0) tbl WHERE Id IS NOT NULL ORDER BY tbl.PegawaiName;</t>
   </si>
   <si>
     <t>USE DigisalesNew; SELECT DISTINCT p.[Id], p.[Nama] AS PegawaiName, p.[Role_Id], mr.Nama AS RoleName, p.[Unit_Id], u.Name AS UnitName,st.Nama AS SalesTypeName, p.SalesTypeId, p.[Npp], +(9)p.Npp +(=) ' - ' +(=) p.Nama +(=) ' +(9)' +(=) mr.Nama +(=) '+(0)'+(0) AS [Text], wil.Code WilayahCode, wil.NamaWilayah WilayahName FROM [dbo].[Tbl_Pegawai] p LEFT JOIN [dbo].[Tbl_Master_Role] mr ON mr.Id = p.Role_Id LEFT JOIN [dbo].[Tbl_Unit] u ON u.Id = p.Unit_Id LEFT JOIN [DigisalesNew].[dbo].[Tbl_SalesType] st ON st.Id = p.SalesTypeId JOIN dbo.Tbl_Wilayah_Pegawai wp ON wp.npp = p.Npp AND wp.isdeleted = 0 LEFT JOIN dbo.Tbl_Unit_Wilayah wil ON wil.Code = wp.Wilayah_code WHERE p.Role_Id = 4</t>
@@ -251,16 +251,16 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -283,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -303,23 +303,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,13 +680,13 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
@@ -698,65 +695,65 @@
         <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="O1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="P1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="Q1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="R1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="S1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="T1" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="U1" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="V1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="102" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>16</v>
+      <c r="B2" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="13">
+        <v>27</v>
+      </c>
+      <c r="F2" s="9">
         <v>55210</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="2"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -765,17 +762,17 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>16</v>
+      <c r="B3" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F3" s="4">
         <v>32362</v>
@@ -784,45 +781,45 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="8" t="s">
-        <v>47</v>
+        <v>29</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3" s="14" t="str">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="12" t="str">
         <f>"Berikut NPP yang Ada dalam User " &amp; H3</f>
         <v>Berikut NPP yang Ada dalam User Penyelia</v>
       </c>
-      <c r="T3" s="11" t="s">
-        <v>50</v>
+      <c r="T3" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="102" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>16</v>
+      <c r="B4" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F4" s="4">
         <v>18839</v>
@@ -831,45 +828,45 @@
         <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="8" t="s">
-        <v>47</v>
+        <v>29</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="14" t="str">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="12" t="str">
         <f t="shared" ref="Q4:Q8" si="0">"Berikut NPP yang Ada dalam User " &amp; H4</f>
         <v>Berikut NPP yang Ada dalam User Pimpinan Cabang</v>
       </c>
-      <c r="T4" s="11" t="s">
-        <v>51</v>
+      <c r="T4" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>16</v>
+      <c r="B5" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>21</v>
+        <v>41</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="F5" s="1">
         <v>29591</v>
@@ -878,43 +875,43 @@
         <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>47</v>
+        <v>29</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q5" s="14" t="str">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Berikut NPP yang Ada dalam User Pemimpin Wilayah</v>
       </c>
-      <c r="T5" s="11" t="s">
-        <v>52</v>
+      <c r="T5" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>16</v>
+      <c r="B6" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>22</v>
+        <v>45</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="F6" s="1">
         <v>37400</v>
@@ -923,43 +920,43 @@
         <v>9</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="O6" s="6" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q6" s="14" t="str">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Berikut NPP yang Ada dalam User Penyelia SRM</v>
       </c>
-      <c r="T6" s="11" t="s">
-        <v>53</v>
+      <c r="T6" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>16</v>
+      <c r="B7" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>23</v>
+        <v>49</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="F7">
         <v>52326</v>
@@ -968,43 +965,43 @@
         <v>9</v>
       </c>
       <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="P7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" s="14" t="str">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Berikut NPP yang Ada dalam User Admin SLN</v>
       </c>
-      <c r="T7" s="11" t="s">
-        <v>54</v>
+      <c r="T7" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="225" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>16</v>
+      <c r="B8" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>35</v>
+        <v>52</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="F8">
         <v>37679</v>
@@ -1013,25 +1010,25 @@
         <v>9</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>47</v>
+        <v>29</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" s="14" t="str">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Berikut NPP yang Ada dalam User Admin WEM</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="T8" s="13" t="s">
         <v>55</v>
       </c>
     </row>
